--- a/practice/dog dessert.xlsx
+++ b/practice/dog dessert.xlsx
@@ -984,11 +984,11 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>애견간식 4봉~/2세트이상 사은품증정/강아지간식/개껌</t>
+          <t>애견간식 6봉 1세트 무료배송 강아지간식 사은품증정</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>10900</v>
+        <v>13900</v>
       </c>
       <c r="D35" t="n">
         <v>96</v>
@@ -1000,11 +1000,11 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>애견간식 6봉 1세트 무료배송 강아지간식 사은품증정</t>
+          <t>애견간식 4봉~/2세트이상 사은품증정/강아지간식/개껌</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>13900</v>
+        <v>10900</v>
       </c>
       <c r="D36" t="n">
         <v>96</v>
@@ -1880,14 +1880,14 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>치킨박사 오리박사 모음 300g/애견간식 강아지간식</t>
+          <t>애견 강아지 간식 모음 애완 용품 개껌 강아지껌 캔</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2500</v>
+        <v>4900</v>
       </c>
       <c r="D91" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="92">
@@ -1896,14 +1896,14 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>애견 강아지 간식 모음 애완 용품 개껌 강아지껌 캔</t>
+          <t>대형견 전용 오래먹는 빅사이즈 덴탈껌 맥스틱 4개</t>
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4900</v>
+        <v>13300</v>
       </c>
       <c r="D92" t="n">
-        <v>90</v>
+        <v>96</v>
       </c>
     </row>
     <row r="93">
@@ -1912,14 +1912,14 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>대형견 전용 오래먹는 빅사이즈 덴탈껌 맥스틱 4개</t>
+          <t>더담은 일키로 오리스틱껌 1kg 강아지간식 +300g간식증정</t>
         </is>
       </c>
       <c r="C93" t="n">
-        <v>13300</v>
+        <v>18900</v>
       </c>
       <c r="D93" t="n">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="94">
@@ -1928,14 +1928,14 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>더담은 일키로 오리스틱껌 1kg 강아지간식 +300g간식증정</t>
+          <t>에프디바이츠/에프디트릿 동결건조 애견간식/강아지/고양이간식</t>
         </is>
       </c>
       <c r="C94" t="n">
-        <v>18900</v>
+        <v>5900</v>
       </c>
       <c r="D94" t="n">
-        <v>100</v>
+        <v>92</v>
       </c>
     </row>
     <row r="95">
@@ -1944,11 +1944,11 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>에프디바이츠/에프디트릿 동결건조 애견간식/강아지/고양이간식</t>
+          <t>로얄펫라이프 강아지간식 오늘간식 치킨대구큐브 4팩 + 1팩 증정</t>
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5900</v>
+        <v>13900</v>
       </c>
       <c r="D95" t="n">
         <v>92</v>
@@ -1960,14 +1960,14 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>로얄펫라이프 강아지간식 오늘간식 치킨대구큐브 4팩 + 1팩 증정</t>
+          <t>굿프랜드 치석제거 치킨츄껌 강아지 애견간식 6PX10개</t>
         </is>
       </c>
       <c r="C96" t="n">
-        <v>13900</v>
+        <v>16800</v>
       </c>
       <c r="D96" t="n">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="97">
@@ -1976,14 +1976,14 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>굿프랜드 치석제거 치킨츄껌 강아지 애견간식 6PX10개</t>
+          <t>간식 프리미엄 체다 치즈 웨이브 280g 2개</t>
         </is>
       </c>
       <c r="C97" t="n">
-        <v>16800</v>
+        <v>22000</v>
       </c>
       <c r="D97" t="n">
-        <v>96</v>
+        <v>86</v>
       </c>
     </row>
     <row r="98">
@@ -1992,14 +1992,14 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>간식 프리미엄 체다 치즈 웨이브 280g 2개</t>
+          <t>뉴트리밸류 강아지 애견 수제간식 인기세트 3종</t>
         </is>
       </c>
       <c r="C98" t="n">
-        <v>22000</v>
+        <v>6200</v>
       </c>
       <c r="D98" t="n">
-        <v>86</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
